--- a/extras/test-form/fd-plugin-demo.xlsx
+++ b/extras/test-form/fd-plugin-demo.xlsx
@@ -619,7 +619,7 @@
         <v>FD Ticket</v>
       </c>
       <c r="F14" s="1" t="str">
-        <v>custom-fd-ticket(patientName=${patient_name}, phoneNumber=${phone_number}, patientQuery=${patient_query}, agentEmail=${agentEmail}, apiUrl='https://something.org/res/ticket/new/raw/', apiToken='ahsjashajshajshasj', language='Bengali' ,familyConnectedOnWa='Yes', projectId='BD Tele Support', fdUrl='https://noorahealth.freshdesk.com', countryName='Bangladesh')</v>
+        <v>custom-fd-ticket(patientName=${patient_name}, phoneNumber=${phone_number}, patientQuery=${patient_query}, agentEmail=${agentEmail}, apiUrl='https://something.org/res/ticket/new/raw/', apiToken='ahsjashajshajshasj', language='Bengali' ,familyConnectedOnWa='Yes', projectId='Test Project', fdUrl='https://noorahealth.freshdesk.com', countryName='Bangladesh')</v>
       </c>
       <c r="K14" s="1" t="str">
         <v>yes</v>
